--- a/biology/Médecine/Ligament_poplité_oblique/Ligament_poplité_oblique.xlsx
+++ b/biology/Médecine/Ligament_poplité_oblique/Ligament_poplité_oblique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ligament_poplit%C3%A9_oblique</t>
+          <t>Ligament_poplité_oblique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament poplité oblique est un ligament postérieur de l'articulation fémoro-tibiale. Il fait partie du plan fibreux postérieur du genou.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ligament_poplit%C3%A9_oblique</t>
+          <t>Ligament_poplité_oblique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament poplité oblique est une expansion fibreuse en éventail qui se détache du bord latéral du tendon du muscle semi-membraneux. 
 Il se termine sur la partie latérale de la face postérieure de la capsule de l'articulation fémoro-tibiale, sur la fabella et au-dessus de la face postérieure du condyle latéral du fémur.
-Remarque
-Il ne doit pas être confondu avec le tendon réfléchi du muscle semi-membraneux qui contourne l'épicondyle médial du fémur.
 </t>
         </is>
       </c>
@@ -527,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ligament_poplit%C3%A9_oblique</t>
+          <t>Ligament_poplité_oblique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +554,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Remarque</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il ne doit pas être confondu avec le tendon réfléchi du muscle semi-membraneux qui contourne l'épicondyle médial du fémur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ligament_poplité_oblique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ligament_poplit%C3%A9_oblique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament poplité oblique peut être lésé, entraînant une déformation en valgus . La réparation chirurgicale du ligament donne souvent de meilleurs résultats que la prise en charge conservatrice . 
 Le ligament poplité oblique peut être sectionné lors d'une chirurgie réparatrice méniscale sous arthroscopie . 
